--- a/кр.xlsx
+++ b/кр.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eldar\Desktop\Оптимизация\MO_PY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E54B1DAE-681D-460E-897A-5DF4C43D2D2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70FED1A1-CB3B-4D46-AC06-1855003536BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29385" yWindow="1800" windowWidth="21600" windowHeight="11385" xr2:uid="{92C80C45-2554-43EE-8640-C38CD0F1F208}"/>
   </bookViews>
   <sheets>
     <sheet name="MO" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -486,10 +487,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D91EBFE-9BE4-4EAB-A664-738C15B09FA4}">
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +499,7 @@
     <col min="2" max="2" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -514,7 +515,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -538,7 +539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>45</v>
       </c>
@@ -564,7 +565,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>80</v>
       </c>
@@ -590,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,153 +615,6 @@
       </c>
       <c r="H5" s="1">
         <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>15</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>35</v>
-      </c>
-      <c r="F11">
-        <v>30</v>
-      </c>
-      <c r="G11">
-        <v>20</v>
-      </c>
-      <c r="H11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>3</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>2</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13">
-        <v>3</v>
-      </c>
-      <c r="C13">
-        <v>2</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>2</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E14">
-        <v>156</v>
-      </c>
-      <c r="F14">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -772,4 +626,166 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915CF3C1-8E18-450F-ADA4-EF552401E961}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>35</v>
+      </c>
+      <c r="F2">
+        <v>30</v>
+      </c>
+      <c r="G2">
+        <v>20</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>156</v>
+      </c>
+      <c r="F5">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>